--- a/PNR_Raw_Data/PNR_PitfallTrapLocations_2015.xlsx
+++ b/PNR_Raw_Data/PNR_PitfallTrapLocations_2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/perry_1864_osu_edu/Documents/Documents/Perry Lab/Powdermill Nature Reserve/PNR_Beetles/PNR Raw Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR_Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{0CC625FF-5C58-4EDC-8400-DD7F02E1AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73DA295C-6ED1-41AF-AE89-2057A02C0C00}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-11100" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="20" windowWidth="12810" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,21 +531,21 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>41</v>
       </c>
@@ -564,7 +564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>42</v>
       </c>
@@ -575,7 +575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>43</v>
       </c>
@@ -586,7 +586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>44</v>
       </c>
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>45</v>
       </c>
@@ -608,7 +608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>46</v>
       </c>
@@ -619,7 +619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>47</v>
       </c>
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>48</v>
       </c>
@@ -641,7 +641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>49</v>
       </c>
@@ -652,7 +652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
@@ -663,7 +663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>51</v>
       </c>
@@ -674,7 +674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>52</v>
       </c>
@@ -685,7 +685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>53</v>
       </c>
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>54</v>
       </c>
@@ -707,7 +707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>55</v>
       </c>
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>56</v>
       </c>
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>57</v>
       </c>
@@ -740,7 +740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>58</v>
       </c>
@@ -751,7 +751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>59</v>
       </c>
@@ -762,7 +762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>60</v>
       </c>
@@ -773,7 +773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>61</v>
       </c>
@@ -784,7 +784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>62</v>
       </c>
@@ -795,7 +795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>63</v>
       </c>
@@ -806,7 +806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>64</v>
       </c>
@@ -817,7 +817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>65</v>
       </c>
@@ -840,7 +840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -852,7 +852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PNR_Raw_Data/PNR_PitfallTrapLocations_2015.xlsx
+++ b/PNR_Raw_Data/PNR_PitfallTrapLocations_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{0CC625FF-5C58-4EDC-8400-DD7F02E1AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73DA295C-6ED1-41AF-AE89-2057A02C0C00}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="20" windowWidth="12810" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
